--- a/natmiOut/OldD7/LR-pairs_lrc2p/Cx3cl1-Cx3cr1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Cx3cl1-Cx3cr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cx3cr1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,185 +522,743 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.073236105266689</v>
+        <v>9.355195333333333</v>
       </c>
       <c r="H2">
-        <v>8.073236105266689</v>
+        <v>28.065586</v>
       </c>
       <c r="I2">
-        <v>0.4154041124348532</v>
+        <v>0.4481020953400846</v>
       </c>
       <c r="J2">
-        <v>0.4154041124348532</v>
+        <v>0.4481020953400845</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>50.2157569123388</v>
+        <v>0.03964366666666667</v>
       </c>
       <c r="N2">
-        <v>50.2157569123388</v>
+        <v>0.118931</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.0006975945531374325</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.0006975945531374324</v>
       </c>
       <c r="Q2">
-        <v>405.4036617579889</v>
+        <v>0.3708742453962222</v>
       </c>
       <c r="R2">
-        <v>405.4036617579889</v>
+        <v>3.337868208566</v>
       </c>
       <c r="S2">
-        <v>0.4154041124348532</v>
+        <v>0.0003125935809587135</v>
       </c>
       <c r="T2">
-        <v>0.4154041124348532</v>
+        <v>0.0003125935809587134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.3110041044262</v>
+        <v>9.355195333333333</v>
       </c>
       <c r="H3">
-        <v>10.3110041044262</v>
+        <v>28.065586</v>
       </c>
       <c r="I3">
-        <v>0.5305472864242217</v>
+        <v>0.4481020953400846</v>
       </c>
       <c r="J3">
-        <v>0.5305472864242217</v>
+        <v>0.4481020953400845</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.2157569123388</v>
+        <v>56.208757</v>
       </c>
       <c r="N3">
-        <v>50.2157569123388</v>
+        <v>168.626271</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9890841594325835</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9890841594325835</v>
       </c>
       <c r="Q3">
-        <v>517.7748756299936</v>
+        <v>525.8439011788673</v>
       </c>
       <c r="R3">
-        <v>517.7748756299936</v>
+        <v>4732.595110609806</v>
       </c>
       <c r="S3">
-        <v>0.5305472864242217</v>
+        <v>0.443210684309427</v>
       </c>
       <c r="T3">
-        <v>0.5305472864242217</v>
+        <v>0.4432106843094269</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>9.355195333333333</v>
+      </c>
+      <c r="H4">
+        <v>28.065586</v>
+      </c>
+      <c r="I4">
+        <v>0.4481020953400846</v>
+      </c>
+      <c r="J4">
+        <v>0.4481020953400845</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.5806936666666667</v>
+      </c>
+      <c r="N4">
+        <v>1.742081</v>
+      </c>
+      <c r="O4">
+        <v>0.01021824601427896</v>
+      </c>
+      <c r="P4">
+        <v>0.01021824601427896</v>
+      </c>
+      <c r="Q4">
+        <v>5.432502680496222</v>
+      </c>
+      <c r="R4">
+        <v>48.892524124466</v>
+      </c>
+      <c r="S4">
+        <v>0.004578817449698872</v>
+      </c>
+      <c r="T4">
+        <v>0.004578817449698871</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>10.423773</v>
+      </c>
+      <c r="H5">
+        <v>31.271319</v>
+      </c>
+      <c r="I5">
+        <v>0.4992856221832745</v>
+      </c>
+      <c r="J5">
+        <v>0.4992856221832744</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.03964366666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.118931</v>
+      </c>
+      <c r="O5">
+        <v>0.0006975945531374325</v>
+      </c>
+      <c r="P5">
+        <v>0.0006975945531374324</v>
+      </c>
+      <c r="Q5">
+        <v>0.413236582221</v>
+      </c>
+      <c r="R5">
+        <v>3.719129239988999</v>
+      </c>
+      <c r="S5">
+        <v>0.0003482989304948863</v>
+      </c>
+      <c r="T5">
+        <v>0.0003482989304948863</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>10.423773</v>
+      </c>
+      <c r="H6">
+        <v>31.271319</v>
+      </c>
+      <c r="I6">
+        <v>0.4992856221832745</v>
+      </c>
+      <c r="J6">
+        <v>0.4992856221832744</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>56.208757</v>
+      </c>
+      <c r="N6">
+        <v>168.626271</v>
+      </c>
+      <c r="O6">
+        <v>0.9890841594325835</v>
+      </c>
+      <c r="P6">
+        <v>0.9890841594325835</v>
+      </c>
+      <c r="Q6">
+        <v>585.9073235801609</v>
+      </c>
+      <c r="R6">
+        <v>5273.165912221449</v>
+      </c>
+      <c r="S6">
+        <v>0.4938354999339186</v>
+      </c>
+      <c r="T6">
+        <v>0.4938354999339185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>10.423773</v>
+      </c>
+      <c r="H7">
+        <v>31.271319</v>
+      </c>
+      <c r="I7">
+        <v>0.4992856221832745</v>
+      </c>
+      <c r="J7">
+        <v>0.4992856221832744</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.5806936666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.742081</v>
+      </c>
+      <c r="O7">
+        <v>0.01021824601427896</v>
+      </c>
+      <c r="P7">
+        <v>0.01021824601427896</v>
+      </c>
+      <c r="Q7">
+        <v>6.053018963871</v>
+      </c>
+      <c r="R7">
+        <v>54.47717067483899</v>
+      </c>
+      <c r="S7">
+        <v>0.005101823318861038</v>
+      </c>
+      <c r="T7">
+        <v>0.005101823318861037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.05041598074816</v>
-      </c>
-      <c r="H4">
-        <v>1.05041598074816</v>
-      </c>
-      <c r="I4">
-        <v>0.05404860114092513</v>
-      </c>
-      <c r="J4">
-        <v>0.05404860114092513</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>50.2157569123388</v>
-      </c>
-      <c r="N4">
-        <v>50.2157569123388</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>52.74743354608555</v>
-      </c>
-      <c r="R4">
-        <v>52.74743354608555</v>
-      </c>
-      <c r="S4">
-        <v>0.05404860114092513</v>
-      </c>
-      <c r="T4">
-        <v>0.05404860114092513</v>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.009880666666666668</v>
+      </c>
+      <c r="H8">
+        <v>0.029642</v>
+      </c>
+      <c r="I8">
+        <v>0.0004732715115968286</v>
+      </c>
+      <c r="J8">
+        <v>0.0004732715115968285</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.03964366666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.118931</v>
+      </c>
+      <c r="O8">
+        <v>0.0006975945531374325</v>
+      </c>
+      <c r="P8">
+        <v>0.0006975945531374324</v>
+      </c>
+      <c r="Q8">
+        <v>0.0003917058557777779</v>
+      </c>
+      <c r="R8">
+        <v>0.003525352702</v>
+      </c>
+      <c r="S8">
+        <v>3.301516286450668E-07</v>
+      </c>
+      <c r="T8">
+        <v>3.301516286450667E-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.009880666666666668</v>
+      </c>
+      <c r="H9">
+        <v>0.029642</v>
+      </c>
+      <c r="I9">
+        <v>0.0004732715115968286</v>
+      </c>
+      <c r="J9">
+        <v>0.0004732715115968285</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>56.208757</v>
+      </c>
+      <c r="N9">
+        <v>168.626271</v>
+      </c>
+      <c r="O9">
+        <v>0.9890841594325835</v>
+      </c>
+      <c r="P9">
+        <v>0.9890841594325835</v>
+      </c>
+      <c r="Q9">
+        <v>0.5553799916646667</v>
+      </c>
+      <c r="R9">
+        <v>4.998419924982</v>
+      </c>
+      <c r="S9">
+        <v>0.0004681053552311374</v>
+      </c>
+      <c r="T9">
+        <v>0.0004681053552311373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.009880666666666668</v>
+      </c>
+      <c r="H10">
+        <v>0.029642</v>
+      </c>
+      <c r="I10">
+        <v>0.0004732715115968286</v>
+      </c>
+      <c r="J10">
+        <v>0.0004732715115968285</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.5806936666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.742081</v>
+      </c>
+      <c r="O10">
+        <v>0.01021824601427896</v>
+      </c>
+      <c r="P10">
+        <v>0.01021824601427896</v>
+      </c>
+      <c r="Q10">
+        <v>0.005737640555777778</v>
+      </c>
+      <c r="R10">
+        <v>0.051638765002</v>
+      </c>
+      <c r="S10">
+        <v>4.836004737046074E-06</v>
+      </c>
+      <c r="T10">
+        <v>4.836004737046073E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.088525666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.265577</v>
+      </c>
+      <c r="I11">
+        <v>0.05213901096504407</v>
+      </c>
+      <c r="J11">
+        <v>0.05213901096504406</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.03964366666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.118931</v>
+      </c>
+      <c r="O11">
+        <v>0.0006975945531374325</v>
+      </c>
+      <c r="P11">
+        <v>0.0006975945531374324</v>
+      </c>
+      <c r="Q11">
+        <v>0.04315314868744444</v>
+      </c>
+      <c r="R11">
+        <v>0.3883783381869999</v>
+      </c>
+      <c r="S11">
+        <v>3.637189005518761E-05</v>
+      </c>
+      <c r="T11">
+        <v>3.63718900551876E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.088525666666667</v>
+      </c>
+      <c r="H12">
+        <v>3.265577</v>
+      </c>
+      <c r="I12">
+        <v>0.05213901096504407</v>
+      </c>
+      <c r="J12">
+        <v>0.05213901096504406</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>56.208757</v>
+      </c>
+      <c r="N12">
+        <v>168.626271</v>
+      </c>
+      <c r="O12">
+        <v>0.9890841594325835</v>
+      </c>
+      <c r="P12">
+        <v>0.9890841594325835</v>
+      </c>
+      <c r="Q12">
+        <v>61.18467468592966</v>
+      </c>
+      <c r="R12">
+        <v>550.6620721733669</v>
+      </c>
+      <c r="S12">
+        <v>0.05156986983400687</v>
+      </c>
+      <c r="T12">
+        <v>0.05156986983400686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.088525666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.265577</v>
+      </c>
+      <c r="I13">
+        <v>0.05213901096504407</v>
+      </c>
+      <c r="J13">
+        <v>0.05213901096504406</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.5806936666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.742081</v>
+      </c>
+      <c r="O13">
+        <v>0.01021824601427896</v>
+      </c>
+      <c r="P13">
+        <v>0.01021824601427896</v>
+      </c>
+      <c r="Q13">
+        <v>0.6320999606374443</v>
+      </c>
+      <c r="R13">
+        <v>5.688899645736999</v>
+      </c>
+      <c r="S13">
+        <v>0.0005327692409820088</v>
+      </c>
+      <c r="T13">
+        <v>0.0005327692409820086</v>
       </c>
     </row>
   </sheetData>
